--- a/data/raw/explainer_videos_333_rovesnik.xlsx
+++ b/data/raw/explainer_videos_333_rovesnik.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,2426 +441,7233 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Название (RU) / Название (EN)</t>
+          <t>exercise_slug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Скрипт Инструкции («Близкий по духу ровесник»)</t>
+          <t>video_kind</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>r2_path</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EX001</t>
+          <t>CX001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Приседания с весом тела / Bodyweight Squats</t>
+          <t>CX001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Итак, приседания. Главный совет — представь, что садишься на стул, который стоит чуть сзади. Движение начинай с отведения таза, а не со сгибания коленей. Концентрируйся на том, чтобы пятки были плотно прижаты к полу. И следи, чтобы колени не заваливались внутрь — это частая ошибка, которая может привести к травме."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>videos/peer/CX001.mp4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EX002</t>
+          <t>CX002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Выпады вперед / Forward Lunges</t>
+          <t>CX002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Выпады. Совет: делай шаг достаточно широким, чтобы в нижней точке голень передней ноги была перпендикулярна полу. Концентрируйся на том, чтобы отталкиваться именно передней ногой. Частая ошибка — биться задним коленом об пол. Опускайся плавно."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>videos/peer/CX002.mp4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EX003</t>
+          <t>CX003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Болгарские сплит-приседания / Bulgarian Split Squats</t>
+          <t>CX003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Болгарские выпады — это вещь! Совет: найди удобное положение для задней ноги, она не должна быть слишком высоко. Концентрируйся на удержании равновесия и вертикальном положении корпуса. Главная ошибка — заваливаться вперед. Вся работа — в передней ноге."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>videos/peer/CX003.mp4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EX004</t>
+          <t>CX004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>«Навес» (наклон назад с колен) / Nordic Hamstring Curl (Bodyweight variation)</t>
+          <t>CX004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Упражнение 'Навес'. Совет: зафиксируй стопы под чем-то тяжелым. Наклоняйся назад медленно, всем телом. Концентрируйся на напряжении квадрицепсов и ягодиц. Ошибка — прогибаться в пояснице. Тело должно быть как прямая доска."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>videos/peer/CX004.mp4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EX005</t>
+          <t>CX005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Приседания "Плие" / Plie Squats</t>
+          <t>CX005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Приседания 'Плие'. Совет: поставь ноги широко, носки в стороны. Приседая, разводи колени в стороны, по направлению носков. Концентрируйся на растяжении и работе внутренней поверхности бедер. Ошибка — сводить колени внутрь при подъеме."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>videos/peer/CX005.mp4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EX006</t>
+          <t>CX006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Приседания у стены ("Стульчик") / Wall Sit</t>
+          <t>CX006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Наш любимый 'стульчик'. Совет: сползи по стене до тех пор, пока бедра не будут параллельны полу. Плотно прижми поясницу к стене. Концентрируйся на жжении в квадрицепсах и терпи! Ошибка — опираться руками на колени. Руки скрести на груди или опусти."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>videos/peer/CX006.mp4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EX007</t>
+          <t>CX007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Подъемы на носки стоя / Standing Calf Raises</t>
+          <t>CX007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Качаем икры. Совет: в верхней точке задержись на секунду, чтобы максимально сократить мышцу. Движение должно быть плавным. Концентрируйся на работе икроножных. Ошибка — делать упражнение рывками, не чувствуя мышц."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>videos/peer/CX007.mp4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EX008</t>
+          <t>CX008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Обратные выпады / Reverse Lunges</t>
+          <t>CX008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Обратные выпады. Многие их любят больше, чем прямые. Совет: делай шаг назад и опускайся вниз, почти касаясь коленом пола. Концентрируйся на стабильности передней ноги. Ошибка — отталкиваться задней ногой. Вся работа — на передней."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>videos/peer/CX008.mp4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EX009</t>
+          <t>CX009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Боковые выпады / Lateral Lunges</t>
+          <t>CX009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Боковые выпады. Совет: делай широкий шаг в сторону, таз отводи назад, как в приседании. Вторая нога остается прямой. Концентрируйся на растяжении внутренней поверхности прямой ноги. Ошибка — отрывать пятку опорной ноги от пола."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>videos/peer/CX009.mp4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EX010</t>
+          <t>CX010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Приседания "Пистолетик" (с опорой) / Pistol Squats (Assisted)</t>
+          <t>CX010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Пистолетик! Пробуем. Совет: держись за опору для баланса и садись на одну ногу как можно ниже. Концентрируйся на силе одной ноги. Ошибка — полностью переносить вес на опору. Она только для легкой поддержки."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>videos/peer/CX010.mp4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EX011</t>
+          <t>CX011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Зашагивания на возвышенность / Step-Ups</t>
+          <t>CX011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Зашагивания на платформу. Совет: используй стул или диван. Старайся отталкиваться только той ногой, что на платформе. Концентрируйся на напряжении ягодицы в верхней точке. Ошибка — помогать себе толчком нижней ноги."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>videos/peer/CX011.mp4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EX012</t>
+          <t>CX012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ягодичный мост с разведением коленей / Glute Bridge with Abduction</t>
+          <t>CX012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Ягодичный мост с фишкой. Совет: в верхней точке моста плавно разведи колени в стороны и сведи обратно, не опуская таз. Концентрируйся на работе средней части ягодиц. Ошибка — опускать таз во время разведения коленей."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>videos/peer/CX012.mp4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EX013</t>
+          <t>CX013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Приседания с прыжком / Jump Squats</t>
+          <t>CX013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Добавим огня — приседания с прыжком. Совет: из приседа выпрыгивай максимально высоко. Приземляйся мягко, сразу уходя в следующий присед. Концентрируйся на взрывной силе. Ошибка — жесткое приземление на прямые ноги. Береги колени."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>videos/peer/CX013.mp4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EX014</t>
+          <t>CX014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Выпады с прыжком / Jumping Lunges</t>
+          <t>CX014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Выпады с прыжком. Это уже серьезно! Совет: в прыжке меняй ноги в воздухе. Старайся держать равновесие. Концентрируйся на темпе и высоте прыжка. Ошибка — терять контроль и биться коленями об пол. Если тяжело, делай медленнее."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>videos/peer/CX014.mp4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EX015</t>
+          <t>CX015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Маласана (Глубокий присед) / Malasana (Deep Squat)</t>
+          <t>CX015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Маласана, или глубокий присед. Совет: сядь как можно глубже, стараясь удержать пятки на полу. Локтями можешь мягко разводить колени в стороны. Концентрируйся на раскрытии таза и расслаблении. Ошибка — скруглять спину. Старайся держать ее прямой."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>videos/peer/CX015.mp4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CX016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Название (RU) / Название (EN)</t>
+          <t>CX016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Скрипт Инструкции («Успешный профессионал»)</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>videos/peer/CX016.mp4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SX001</t>
+          <t>CX017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Сжатие Кегеля (Базовое) / Kegel Squeeze (Basic)</t>
+          <t>CX017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Упражнение: базовое сокращение мышц тазового дна. Ключевой совет: идентифицируйте лобково-копчиковую мышцу. Выполняйте изолированное сокращение на 3 секунды с последующим полным расслаблением. Фокус концентрации — нейромышечная связь, осознанное управление. Ошибка — вовлечение вторичных мышц: пресса, ягодиц, бедер."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>videos/peer/CX017.mp4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SX002</t>
+          <t>CX018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Пульсации Кегеля (Быстрые) / Kegel Pulses (Fast)</t>
+          <t>CX018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Быстрые сокращения МТД. Совет: выполняйте серию из 10-15 быстрых, ритмичных сокращений. Цель — развить скорость реакции мышечных волокон. Фокус концентрации — скорость и четкость каждого импульса. Ошибка — потеря контроля и переход в хаотичное напряжение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>videos/peer/CX018.mp4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SX003</t>
+          <t>CX019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Удержания Кегеля (Длинные) / Kegel Holds (Long)</t>
+          <t>CX019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Изометрическое удержание МТД. Совет: выполните сокращение и удерживайте его с постоянным усилием в течение 10-15 секунд. Фокус концентрации — развитие статической выносливости мышц. Ошибка — задержка дыхания, что повышает внутрибрюшное давление. Дыхание ровное."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>videos/peer/CX019.mp4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SX004</t>
+          <t>CX020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Обратные Кегели (Расслабление) / Reverse Kegels (Relaxation)</t>
+          <t>CX020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Обратные Кегели. Совет: вместо сокращения, выполните контролируемое расслабление и легкое 'раскрытие' тазового дна. Это навык, а не силовое движение. Фокус концентрации — снятие хронического напряжения. Ошибка — сильное натуживание, которое контрпродуктивно."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>videos/peer/CX020.mp4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SX005</t>
+          <t>CX021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Упражнение "Лифт" / The "Elevator" Kegel</t>
+          <t>CX021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Упражнение 'Лифт'. Совет: выполняйте постепенное, поуровневое сокращение МТД, а затем такое же контролируемое расслабление. Фокус концентрации — развитие тонкого моторного контроля. Ошибка — резкие переходы между уровнями напряжения. Движение должно быть плавным."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>videos/peer/CX021.mp4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SX006</t>
+          <t>CZ001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Кегели с сопротивлением / Resisted Kegels</t>
+          <t>CZ001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Продвинутая техника: сокращение МТД с сопротивлением. Совет: в состоянии эрекции используйте вес легкого полотенца для создания внешней нагрузки. Фокус концентрации — преодоление сопротивления за счет изолированного усилия МТД. Ошибка — использование мышц пресса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ001.mp4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SX007</t>
+          <t>CZ002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сжатие МТД с дыханием / Kegel with Breathing</t>
+          <t>CZ002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Синхронизация с дыханием. Совет: выполняйте сокращение МТД на полном выдохе, а полное расслабление — на вдохе. Фокус концентрации — интеграция работы тазовой диафрагмы с грудобрюшной. Ошибка — нарушение ритма дыхания."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ002.mp4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SX008</t>
+          <t>CZ003</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сокращение МТД в мостике / Glute Bridge with Kegel</t>
+          <t>CZ003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Интегрированное упражнение. Совет: в верхней фазе ягодичного моста выполните серию сокращений Кегеля. Фокус концентрации — одновременная активация ягодичных мышц и МТД. Ошибка — потеря высоты таза при выполнении сокращений."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ003.mp4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SX009</t>
+          <t>CZ004</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Наклоны таза лежа / Supine Pelvic Tilts</t>
+          <t>CZ004</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Мобилизация таза. Совет: лежа на спине, выполняйте передний и задний наклон таза, минимизируя движение в грудном отделе. Фокус концентрации — улучшение контроля над пояснично-тазовым регионом. Ошибка — отрыв плеч от пола."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ004.mp4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SX010</t>
+          <t>CZ005</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Олени у ручья" (Даосская практика) / Deer at the Stream</t>
+          <t>CZ005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Даосская практика. Совет: это комплексное упражнение, требующее координации глубокого дыхания и напряжения мышц промежности и низа живота. Фокус концентрации — создание и удержание внутреннего давления. Ошибка — поверхностное выполнение без должной концентрации."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ005.mp4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SX011</t>
+          <t>CZ006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Изолированное сокращение анального сфинктера / Anal Sphincter Contractions</t>
+          <t>CZ006</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Целевая изоляция: анальный сфинктер. Совет: сфокусируйтесь на сокращении только задней части тазового дна. Фокус концентрации — дифференциация мышечных групп. Ошибка — одновременное сокращение всей промежности."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ006.mp4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SX012</t>
+          <t>CZ007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Изолированное сокращение уретрального сфинктера / Urethral Sphincter Contractions</t>
+          <t>CZ007</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Целевая изоляция: уретральный сфинктер. Совет: сфокусируйтесь на сокращении передней части тазового дна, имитируя остановку мочеиспускания. Фокус концентрации — тонкий моторный контроль. Ошибка — вовлечение задней группы мышц МТД."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ007.mp4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SX013</t>
+          <t>CZ008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Динамические наклоны таза ("Кошка-Корова") / Cat-Cow with Pelvic Focus</t>
+          <t>CZ008</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Мобилизация с акцентом. Совет: при выполнении 'Кошки-Коровы' инициируйте движение именно от таза, позволяя волне пройти по всему позвоночнику. Фокус концентрации — связь между положением таза и состоянием МТД. Ошибка — движение только в грудном отделе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ008.mp4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SX014</t>
+          <t>CZ009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Самомассаж промежности / Perineum Self-Massage</t>
+          <t>CZ009</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Техника самомассажа. Совет: используйте умеренное давление пальцами на область промежности для стимуляции нервных окончаний и улучшения кровотока. Фокус концентрации — выявление и мягкая проработка триггерных точек. Ошибка — чрезмерное давление, вызывающее боль."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ009.mp4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SX015</t>
+          <t>CZ010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Глубокое диафрагмальное дыхание / Diaphragmatic Breathing</t>
+          <t>CZ010</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Фундаментальная практика: диафрагмальное дыхание. Совет: на вдохе живот расширяется, на выдохе — опускается. Грудная клетка остается стабильной. Фокус концентрации — активация парасимпатической нервной системы для снижения стресса. Ошибка — поверхностное грудное дыхание."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ010.mp4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SX016</t>
+          <t>CZ011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Динамическая "Лягушка" / Rocking Frog Pose</t>
+          <t>CZ011</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Динамическая мобилизация таза: 'Лягушка'. Совет: в позе 'Лягушки' выполняйте плавные покачивания тазом вперед-назад в комфортной амплитуде. Фокус концентрации — увеличение подвижности тазобедренных суставов. Ошибка — резкие движения или болевые ощущения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ011.mp4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SX017</t>
+          <t>CZ012</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Перекаты "90/90" / 90/90 Hip Switches</t>
+          <t>CZ012</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Ротация бедра: '90/90'. Совет: сидя, плавно переносите колени из стороны в сторону, сохраняя стопы на месте. Фокус концентрации — улучшение внутренней и внешней ротации в тазобедренных суставах. Ошибка — отрыв ягодиц от пола. Движение контролируемое."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ012.mp4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SX018</t>
+          <t>CZ013</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Глубокий присед с внутренней ротацией бедра / Deep Squat with Internal Rotation</t>
+          <t>CZ013</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Продвинутая мобильность: присед с ротацией. Совет: из глубокого приседа контролируемо опустите одно колено к полу, не отрывая стопы. Фокус концентрации — сложная координация и мобильность таза. Ошибка — потеря баланса. Используйте опору при необходимости."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ013.mp4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SX019</t>
+          <t>CZ014</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Тазовые часы" / Pelvic Clocks</t>
+          <t>CZ014</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Нейромышечный контроль: 'Тазовые часы'. Совет: лежа на спине, представьте циферблат и плавно 'наклоняйте' таз к каждой цифре. Фокус концентрации — тонкая настройка контроля над мышцами кора и таза. Ошибка — вовлечение ног. Движение изолированное."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ014.mp4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SX020</t>
+          <t>CZ015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Пульсации в "Бабочке" / Butterfly Pulses</t>
+          <t>CZ015</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Динамическая растяжка приводящих: 'Бабочка'. Совет: в позе 'Бабочки' выполняйте легкие, пружинящие движения коленями. Фокус концентрации — улучшение кровотока и эластичности мышц. Ошибка — сильное давление. Движения мягкие и контролируемые."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ015.mp4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SX021</t>
+          <t>CZ016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ягодичный мост "Четверка" / Figure-Four Bridge</t>
+          <t>CZ016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Интегрированное упражнение: мост 'Четверка'. Совет: в положении моста, одна лодыжка на колене другой. Сочетает укрепление одной ягодицы и растяжку другой. Фокус концентрации — поддержание ровного положения таза. Ошибка — перекос таза в сторону."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ016.mp4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CZ001</t>
+          <t>CZ017</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Растяжка "Бабочка" / Butterfly Stretch</t>
+          <t>CZ017</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Упражнение: растяжка приводящих мышц. Совет: удерживайте спину в нейтральном положении, мягко надавливайте локтями на колени для увеличения диапазона. Фокус концентрации — постепенное расслабление мышц на выдохе. Ошибка — скругление спины и пружинящие движения, которые могут вызвать защитное сокращение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ017.mp4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CZ002</t>
+          <t>CZ018</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Поза Голубя / Pigeon Pose</t>
+          <t>CZ018</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Поза Голубя для растяжки ягодичных мышц и ротаторов бедра. Совет: таз должен быть расположен ровно, без завала на бок. Регулируйте интенсивность, изменяя угол сгибания передней ноги. Фокус концентрации — глубокое, медленное дыхание для снятия мышечного напряжения. Ошибка — острая боль в колене. В этом случае немедленно снизьте нагрузку."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ018.mp4</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CZ003</t>
+          <t>CZ019</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Поза Ребенка / Child's Pose</t>
+          <t>CZ019</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Поза Ребенка для декомпрессии позвоночника. Совет: опустите таз на пятки и вытяните руки вперед, удлиняя позвоночник. Фокус концентрации — расширение грудной клетки на вдохе и расслабление поясницы на выдохе. Ошибка — напряжение в плечах. Плечи должны быть полностью расслаблены."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ019.mp4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CZ004</t>
+          <t>CZ020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Растяжка задней поверхности бедра / Hamstring Stretch (Single Leg)</t>
+          <t>CZ020</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Растяжка бицепса бедра. Совет: наклон осуществляется за счет сгибания в тазобедренном суставе, а не в пояснице. Спина остается прямой. Фокус концентрации — целевое растяжение задней поверхности бедра. Ошибка — скругление спины, что снимает нагрузку с целевой мышцы и перегружает позвоночник."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ020.mp4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CZ005</t>
+          <t>CZ021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Растяжка квадрицепса / Quad Stretch (Side-lying)</t>
+          <t>CZ021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Изолированная растяжка квадрицепса. Совет: лежа на боку, притяните пятку к ягодице. Для усиления эффекта подайте таз немного вперед. Фокус концентрации — натяжение по всей передней поверхности бедра. Ошибка — выгибание спины. Корпус должен оставаться в нейтральном положении."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>videos/peer/CZ021.mp4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CZ006</t>
+          <t>EX001</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Растяжка грудных мышц / Chest Stretch (Doorway)</t>
+          <t>EX001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Растяжка грудных мышц. Совет: встаньте в проем, предплечья на косяках. Сделайте шаг вперед до ощущения комфортного натяжения. Фокус концентрации — раскрытие грудной клетки. Ошибка — подъем плеч к ушам. Лопатки должны быть опущены."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>videos/peer/EX001.mp4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CZ007</t>
+          <t>EX002</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Скручивание позвоночника лежа / Supine Spinal Twist</t>
+          <t>EX002</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Ротационная растяжка позвоночника. Совет: лежа на спине, перенесите согнутое колено через тело. Обе лопатки должны оставаться в контакте с полом. Фокус концентрации — мягкое скручивание в поясничном и грудном отделах. Ошибка — отрыв плеча от пола, что снижает эффективность скручивания."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>videos/peer/EX002.mp4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CZ008</t>
+          <t>EX003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Растяжка трицепса за головой / Overhead Triceps Stretch</t>
+          <t>EX003</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Растяжка трицепса. Совет: поднимите руку и согните в локте. Другой рукой мягко надавите на локоть, углубляя растяжение. Фокус концентрации — изолированное натяжение трехглавой мышцы плеча. Ошибка — прогиб в пояснице. Поддерживайте кор в напряжении."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>videos/peer/EX003.mp4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CZ009</t>
+          <t>EX004</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Растяжка шеи / Neck Stretch (Lateral Flexion)</t>
+          <t>EX004</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Растяжка боковой поверхности шеи. Совет: выполняйте наклон головы к плечу медленно и без усилия. Рука используется только для создания минимального дополнительного веса. Фокус концентрации — плавное растяжение мышц. Ошибка — резкие движения или сильное давление, что опасно для шейного отдела."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>videos/peer/EX004.mp4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CZ010</t>
+          <t>EX005</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Собака мордой вниз / Downward-Facing Dog</t>
+          <t>EX005</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Упражнение 'Собака мордой вниз'. Комплексная растяжка. Совет: активно отталкивайтесь руками от пола, выпрямляя спину и направляя таз вверх. Фокус концентрации — создание единой прямой линии от кистей до таза. Ошибка — скругление спины. Приоритет — прямая спина, а не прямые ноги."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>videos/peer/EX005.mp4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CZ011</t>
+          <t>EX006</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Наклон вперед стоя / Standing Forward Bend</t>
+          <t>EX006</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Наклон вперед. Совет: наклон начинается со сгибания в тазобедренных суставах. Колени можно держать слегка согнутыми для снятия нагрузки с поясницы. Фокус концентрации — расслабление спины и шеи под действием гравитации. Ошибка — пружинящие движения. Растяжка должна быть статической."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>videos/peer/EX006.mp4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CZ012</t>
+          <t>EX007</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Поза Счастливого Ребенка / Happy Baby Pose</t>
+          <t>EX007</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Поза 'Счастливого Ребенка'. Совет: захватите стопы и мягко подтяните колени к подмышкам, удерживая всю поверхность спины на полу. Фокус концентрации — расслабление в паховой области и пояснице. Ошибка — отрыв копчика от пола. Старайтесь прижимать его к коврику."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>videos/peer/EX007.mp4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CZ013</t>
+          <t>EX008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Поза Лягушки / Frog Pose</t>
+          <t>EX008</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Глубокая растяжка приводящих мышц: 'Лягушка'. Совет: разведите колени на комфортную ширину и медленно опускайте таз назад и вниз. Фокус концентрации — постепенное увеличение диапазона движения с каждым выдохом. Ошибка — игнорирование болевых сигналов. Работайте на грани комфортного натяжения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>videos/peer/EX008.mp4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CZ014</t>
+          <t>EX009</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Растяжка икр у стены / Calf Stretch (Wall)</t>
+          <t>EX009</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Растяжка икроножных мышц. Совет: задняя нога должна быть полностью прямой, пятка в контакте с полом. Регулируйте интенсивность, изменяя расстояние до стены. Фокус концентрации — натяжение в икроножной мышце. Ошибка — сгибание задней ноги в колене."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>videos/peer/EX009.mp4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CZ015</t>
+          <t>EX010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Глубокое диафрагмальное дыхание / Diaphragmatic Breathing</t>
+          <t>EX010</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Завершающая практика: диафрагмальное дыхание. Совет: вдох через нос, живот надувается. Выдох через рот, живот опускается. Выдох должен быть в два раза длиннее вдоха. Фокус концентрации — замедление ЧСС и активация парасимпатической нервной системы. Ошибка — поверхностное дыхание грудью."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>videos/peer/EX010.mp4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CZ016</t>
+          <t>EX011</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Поза Щенка / Puppy Pose</t>
+          <t>EX011</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Поза Щенка. Совет: из положения на четвереньках, 'пройдите' руками вперед, опуская грудь к полу. Таз остается над коленями. Фокус концентрации — глубокое раскрытие в плечевых суставах и грудном отделе. Ошибка — прогиб в пояснице. Живот в легком тонусе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>videos/peer/EX011.mp4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CZ017</t>
+          <t>EX012</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Поза Лежачего Героя (модифицированная) / Reclining Hero Pose (Modified)</t>
+          <t>EX012</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Растяжка квадрицепсов: поза Героя. Совет: сядьте между пятками, используя опору (блок, подушку) для комфорта. Медленно отклоняйтесь назад. Фокус концентрации — интенсивное натяжение передней поверхности бедер. Ошибка — острая боль в коленях или голеностопе. Немедленно выйдите из позы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>videos/peer/EX012.mp4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CZ018</t>
+          <t>EX013</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Поза Дракона / Dragon Pose</t>
+          <t>EX013</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Поза Дракона для глубокой растяжки сгибателей бедра. Совет: из глубокого выпада опустите руки на пол с внутренней стороны стопы. Фокус концентрации — позволить тазу 'провиснуть' к полу под собственным весом. Ошибка — скругление спины. Держите ее длинной."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>videos/peer/EX013.mp4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CZ019</t>
+          <t>EX014</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Растяжка в широком седе (Складка) / Straddle Stretch</t>
+          <t>EX014</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Складка в широком седе. Совет: разведите ноги в стороны до комфортного угла. Наклоняйтесь вперед с прямой спиной, движение от тазобедренных суставов. Фокус концентрации — растяжение внутренней поверхности бедер. Ошибка — наклон за счет сгибания позвоночника."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>videos/peer/EX014.mp4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CZ020</t>
+          <t>EX015</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Растяжка у стены в широком седе / Wall Straddle</t>
+          <t>EX015</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Пассивная растяжка приводящих у стены. Совет: лягте на спину, поднимите ноги на стену и позвольте им разъехаться под действием гравитации. Фокус концентрации — полное расслабление. Ошибка — напряжение. Позвольте силе тяжести сделать работу за вас."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>videos/peer/EX015.mp4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CZ021</t>
+          <t>EX016</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Растяжка "Крендель" / Pretzel Stretch</t>
+          <t>EX016</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Растяжка 'Крендель'. Совет: лежа на спине, согните одну ногу, а лодыжку другой положите на бедро. Притяните обе ноги к себе. Фокус концентрации — глубокое растяжение ягодичной мышцы и внешнего ротатора бедра. Ошибка — отрыв поясницы от пола."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>videos/peer/EX016.mp4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WZ001</t>
+          <t>EX017</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Вращения тазом / Hip Circles</t>
+          <t>EX017</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Упражнение: Вращения тазом. Ключевой совет: Изолируйте движение. Плечевой пояс зафиксирован, работает исключительно тазобедренный сустав. Фокус концентрации — максимальная амплитуда движения для улучшения мобильности. Распространенная ошибка — вовлечение корпуса, что снижает целевую эффективность."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>videos/peer/EX017.mp4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WZ002</t>
+          <t>EX018</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Лимфодренажные прыжки / Heel Drops</t>
+          <t>EX018</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Лимфодренажные прыжки. Совет: выполняйте частые, низкоамплитудные подъемы на носки с акцентированным, но мягким опусканием на пятки. Фокус концентрации — создание ритмичной вибрации для стимуляции лимфатической системы. Ошибка — жесткие удары, создающие ударную нагрузку на суставы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>videos/peer/EX018.mp4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WZ003</t>
+          <t>EX019</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Махи ногами / Leg Swings</t>
+          <t>EX019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Динамическая растяжка: махи ногами. Совет: используйте опору для стабилизации корпуса. Движение маятниковое, без мышечного усилия в конечных точках. Фокус концентрации — постепенное увеличение амплитуды с каждым махом. Ошибка — резкие рывки, которые могут вызвать защитное сокращение мышц."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>videos/peer/EX019.mp4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WZ004</t>
+          <t>EX020</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Круговые движения плечами / Shoulder Rolls</t>
+          <t>EX020</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Мобилизация плечевого пояса. Совет: выполняйте вращения с максимальной амплитудой и контролем, задействуя лопатки. Фокус концентрации — ощущение движения в плечевом суставе. Ошибка — поверхностные, быстрые движения, не вовлекающие лопатки в полной мере."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>videos/peer/EX020.mp4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WZ005</t>
+          <t>EX021</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Наклоны туловища в стороны / Torso Bends</t>
+          <t>EX021</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Боковые наклоны корпуса. Совет: вытягивайтесь за рукой вверх и в сторону, создавая длинную дугу от стопы до кончиков пальцев. Фокус концентрации — растяжение межреберных и косых мышц. Ошибка — наклон вперед или назад. Движение строго в боковой плоскости."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>videos/peer/EX021.mp4</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WZ006</t>
+          <t>EX022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>«Кошка-Корова» / Cat-Cow Pose</t>
+          <t>EX022</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Мобилизация позвоночника: 'Кошка-Корова'. Совет: синхронизируйте движение с дыханием для максимального эффекта. Вдох — прогиб, выдох — скругление. Фокус концентрации — последовательное, сегментарное движение от копчика до шеи. Ошибка — скорость. Цель — контроль, а не темп."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>videos/peer/EX022.mp4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WZ007</t>
+          <t>EX023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ходьба на месте с высоким подъемом коленей / High Knees (Marching)</t>
+          <t>EX023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Подготовка кардиосистемы: ходьба на месте. Совет: поднимайте колени до уровня таза, поддерживая стабильное положение корпуса. Фокус концентрации — повышение частоты сердечных сокращений. Ошибка — сутулость и расслабленный кор. Сохраняйте осанку."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>videos/peer/EX023.mp4</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WZ008</t>
+          <t>EX024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Прыжки "Jumping Jacks" (легкий темп) / Jumping Jacks (Light Pace)</t>
+          <t>EX024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Общий разогрев: Jumping Jacks. Совет: приземляйтесь мягко на носки, колени слегка согнуты. Движения рук и ног должны быть синхронизированы. Фокус концентрации — установление ритмичного дыхания. Ошибка — неполная амплитуда движений рук."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>videos/peer/EX024.mp4</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WZ009</t>
+          <t>EX025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Вращения в голеностопе и запястьях / Ankle &amp; Wrist Rotations</t>
+          <t>EX025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Суставная разминка. Совет: выполните по 10-15 полных круговых вращений в каждом суставе в обе стороны. Фокус концентрации — плавность движения без щелчков и боли. Ошибка — пренебрежение этой частью разминки. Это критически важно для профилактики травм."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>videos/peer/EX025.mp4</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WZ010</t>
+          <t>EX026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Наклоны таза вперед-назад / Pelvic Tilts</t>
+          <t>EX026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Активация кора: наклоны таза. Совет: изолируйте движение в пояснично-тазовом регионе. На выдохе — задний наклон, напрягая пресс. На вдохе — передний. Фокус концентрации — установление нейромышечной связи с мышцами живота. Ошибка — движение за счет ног или плеч."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>videos/peer/EX026.mp4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WZ011</t>
+          <t>EX027</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Повороты корпуса стоя / Standing Torso Twists</t>
+          <t>EX027</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Ротация позвоночника. Совет: зафиксируйте таз, он должен оставаться неподвижным. Поворот осуществляется за счет мышц кора. Фокус концентрации — скручивание в грудном отделе. Ошибка — поворот за счет инерции. Движение должно быть мышечным и контролируемым."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>videos/peer/EX027.mp4</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WZ012</t>
+          <t>EX027_v2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ягодичный мостик (активация) / Glute Bridge (Activation)</t>
+          <t>EX027_v2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Активация ягодичных мышц. Совет: перед подъемом выполните предварительное сокращение ягодиц. Движение вверх — мощное, за счет разгибания тазобедренного сустава. Фокус концентрации — пиковое сокращение в верхней точке. Ошибка — гиперэкстензия поясницы. Подъем осуществляется до прямой линии 'плечи-таз-колени'."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>videos/peer/EX027_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WZ013</t>
+          <t>EX028</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Приседания без веса (разминочные) / Bodyweight Squats (Warm-up Pace)</t>
+          <t>EX028</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Подготовка к базовым движениям: приседания. Совет: выполняйте в комфортной амплитуде, акцентируя внимание на правильной биомеханике. Фокус концентрации — контроль траектории коленей, они должны двигаться по направлению носков. Ошибка — завал коленей внутрь (вальгус)."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>videos/peer/EX028.mp4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WZ014</t>
+          <t>EX028_v2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Отжимания от стены / Wall Push-ups</t>
+          <t>EX028_v2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Активация толкающих мышц: отжимания от стены. Совет: сохраняйте прямую линию тела от головы до пяток. Локти движутся под углом 45 градусов к корпусу. Фокус концентрации — ощущение работы грудных мышц. Ошибка — прогиб в пояснице. Кор должен быть в статическом напряжении."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>videos/peer/EX028_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WZ015</t>
+          <t>EX029</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Червяк" / Inchworm</t>
+          <t>EX029</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Комплексная динамическая растяжка: 'Червяк'. Совет: передвигайтесь на руках до положения планки и обратно, минимизируя сгибание в коленях. Фокус концентрации — растяжение задней поверхности бедра и активация кора. Ошибка — потеря контроля над поясницей в положении планки."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>videos/peer/EX029.mp4</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WZ016</t>
+          <t>EX029_v2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Позвоночная волна / Spinal Wave</t>
+          <t>EX029_v2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Сегментарная мобилизация: Позвоночная волна. Совет: инициируйте движение от таза, позволяя волне пройти по всему позвоночнику до шеи. Фокус концентрации — последовательный контроль каждого отдела. Ошибка — движение всем корпусом одновременно. Цель — артикуляция."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>videos/peer/EX029_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WZ017</t>
+          <t>EX030</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Контролируемые вращения тазобедренного сустава / Hip CARs</t>
+          <t>EX030</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Контролируемые вращения тазобедренного сустава. Совет: выполняйте движение медленно, в максимальной безболезненной амплитуде. Корпус остается неподвижным. Фокус концентрации — изоляция движения в тазобедренном суставе. Ошибка — раскачивание корпуса для увеличения амплитуды."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>videos/peer/EX030.mp4</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WZ018</t>
+          <t>EX030_v2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Грудные скручивания на четвереньках / Quadruped Thoracic Rotations</t>
+          <t>EX030_v2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Ротация грудного отдела. Совет: таз зафиксирован над коленями. Вращение происходит только в верхней части спины. Фокус концентрации — раскрытие грудной клетки на подъеме. Ошибка — вращение в пояснице. Поясница должна оставаться стабильной."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>videos/peer/EX030_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WZ019</t>
+          <t>EX031</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Величайшая растяжка в мире / World's Greatest Stretch</t>
+          <t>EX031</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Комплексная мобилизация. Совет: выполняйте каждый компонент (выпад, наклон, скручивание) медленно и осознанно. Фокус концентрации — интеграция движений в единый поток. Ошибка — скорость. Ценность этого упражнения в его многокомпонентности и контроле."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>videos/peer/EX031.mp4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WZ020</t>
+          <t>EX031_v2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Лопаточные отжимания / Scapular Push-ups</t>
+          <t>EX031_v2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Активация передней зубчатой: Лопаточные отжимания. Совет: руки остаются прямыми на протяжении всего движения. Работают только лопатки, сводясь и разводясь. Фокус концентрации — ощущение скольжения лопаток по ребрам. Ошибка — сгибание локтей."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>videos/peer/EX031_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WZ021</t>
+          <t>EX031_v3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Медвежья проходка / Bear Crawl</t>
+          <t>EX031_v3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Общая активация: Медвежья проходка. Совет: колени находятся низко над полом. Движение разноименных конечностей синхронизировано. Фокус концентрации — поддержание стабильного, низкого положения таза. Ошибка — подъем таза вверх, что снижает нагрузку на кор."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>videos/peer/EX031_v3.mp4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EX001</t>
+          <t>EX032</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Приседания с весом тела / Bodyweight Squats</t>
+          <t>EX032</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Упражнение: приседания с собственным весом. Ключевой аспект: инициация движения происходит в тазобедренном суставе, а не в коленном. Фокус концентрации — поддержание нейтрального положения позвоночника на всей амплитуде. Распространенная ошибка — 'клевок тазом' в нижней точке, что создает компрессионную нагрузку на поясницу. Избегайте этого."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>videos/peer/EX032.mp4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EX002</t>
+          <t>EX032_v2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Выпады вперед / Forward Lunges</t>
+          <t>EX032_v2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Выпады вперед. Ключевой совет: длина шага должна обеспечивать угол 90 градусов в обоих коленных суставах в нижней точке. Фокус концентрации — вертикальное положение корпуса для равномерного распределения нагрузки. Частая ошибка — выход колена передней ноги за линию носка, что перегружает коленный сустав."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>videos/peer/EX032_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EX003</t>
+          <t>EX032_v3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Болгарские сплит-приседания / Bulgarian Split Squats</t>
+          <t>EX032_v3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Болгарские сплит-приседания. Совет: вес тела должен быть распределен преимущественно на переднюю ногу; задняя нога служит для баланса. Фокус концентрации — контроль эксцентрической фазы, опускайтесь медленно. Ошибка — отталкивание задней ногой, что снижает нагрузку на целевые мышцы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>videos/peer/EX032_v3.mp4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EX004</t>
+          <t>EX033</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>«Навес» (наклон назад с колен) / Nordic Hamstring Curl (Bodyweight variation)</t>
+          <t>EX033</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Упражнение 'Навес'. Совет: движение должно быть медленным и подконтрольным, особенно фаза наклона назад. Фокус концентрации — максимальное напряжение квадрицепсов и ягодичных для стабилизации. Ошибка — сгибание в тазобедренном суставе. Корпус и бедра составляют единую прямую линию."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>videos/peer/EX033.mp4</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EX005</t>
+          <t>EX033_v2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Приседания "Плие" / Plie Squats</t>
+          <t>EX033_v2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Приседания 'Плие'. Совет: ширина постановки ног и разворот носков подбираются индивидуально для комфорта в тазобедренных суставах. Фокус концентрации — работа приводящих мышц бедра. Ошибка — сведение коленей внутрь при подъеме, что создает вредную нагрузку на суставы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>videos/peer/EX033_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EX006</t>
+          <t>EX034</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Приседания у стены ("Стульчик") / Wall Sit</t>
+          <t>EX034</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Изометрическое упражнение: 'Стульчик у стены'. Совет: опуститесь до параллели бедер с полом. Поясница и лопатки плотно прижаты к стене. Фокус концентрации — поддержание статического напряжения в квадрицепсах. Ошибка — смещение веса на носки. Вся стопа должна быть на полу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>videos/peer/EX034.mp4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EX007</t>
+          <t>EX034_v2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Подъемы на носки стоя / Standing Calf Raises</t>
+          <t>EX034_v2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Подъемы на носки. Совет: для максимальной эффективности выполняйте упражнение с полной амплитудой — опускайтесь ниже уровня опоры и поднимайтесь максимально высоко. Фокус концентрации — пиковое сокращение икроножной мышцы в верхней точке. Ошибка — использование инерции."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>videos/peer/EX034_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EX008</t>
+          <t>EX035</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Обратные выпады / Reverse Lunges</t>
+          <t>EX035</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Обратные выпады. Совет: шаг назад позволяет лучше контролировать положение переднего колена, что делает упражнение более безопасным. Фокус концентрации — активация ягодичной мышцы передней ноги при подъеме. Ошибка — перенос веса на заднюю ногу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>videos/peer/EX035.mp4</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EX009</t>
+          <t>EX035_v2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Боковые выпады / Lateral Lunges</t>
+          <t>EX035_v2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Латеральные выпады. Совет: при выпаде в сторону отводите таз назад, как при приседании, сохраняя спину прямой. Фокус концентрации — растяжение приводящих мышц прямой ноги и сокращение ягодичных рабочей. Ошибка — сгибание прямой ноги в колене."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>videos/peer/EX035_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EX010</t>
+          <t>EX036</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Приседания "Пистолетик" (с опорой) / Pistol Squats (Assisted)</t>
+          <t>EX036</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Приседания на одной ноге с ассистенцией. Совет: используйте опору минимально, только для коррекции баланса. Фокус концентрации — контроль над всем диапазоном движения, особенно в нижней точке. Ошибка — полное обрушение вниз без контроля эксцентрической фазы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>videos/peer/EX036.mp4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EX011</t>
+          <t>EX036_v2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Зашагивания на возвышенность / Step-Ups</t>
+          <t>EX036_v2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Зашагивания на платформу. Совет: используйте высоту опоры, позволяющую сохранять контроль. При подъеме не отталкивайтесь нижней ногой. Фокус концентрации — работа ягодичной и квадрицепса рабочей ноги. Ошибка — раскачивание корпуса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>videos/peer/EX036_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EX012</t>
+          <t>EX037</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ягодичный мост с разведением коленей / Glute Bridge with Abduction</t>
+          <t>EX037</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Ягодичный мост с абдукцией. Совет: в верхней точке моста, удерживая таз, выполните разведение коленей. Фокус концентрации — активация средней ягодичной мышцы. Ошибка — падение таза при разведении коленей, что свидетельствует о потере контроля."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>videos/peer/EX037.mp4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EX013</t>
+          <t>EX038</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Приседания с прыжком / Jump Squats</t>
+          <t>EX038</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Плиометрика: приседания с прыжком. Совет: приземляйтесь мягко, на носки, сразу амортизируя в следующий присед. Фокус концентрации — максимальная высота прыжка и взрывная сила. Ошибка — жесткое приземление на прямые ноги, что травмоопасно для суставов."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>videos/peer/EX038.mp4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EX014</t>
+          <t>EX039</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Выпады с прыжком / Jumping Lunges</t>
+          <t>EX039</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Плиометрика: выпады с прыжком. Совет: смена ног происходит в воздухе. Движение должно быть непрерывным и ритмичным. Фокус концентрации — поддержание баланса и высоты прыжка. Ошибка — потеря вертикального положения корпуса. Сохраняйте кор напряженным."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>videos/peer/EX039.mp4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EX015</t>
+          <t>EX040</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Маласана (Глубокий присед) / Malasana (Deep Squat)</t>
+          <t>EX040</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Мобильность: Маласана. Совет: опуститесь в глубокий присед, стопы полностью на полу. Локтями мягко разводите колени. Фокус концентрации — раскрытие тазобедренных суставов и расслабление поясницы. Ошибка — скругление спины. Стремитесь к нейтральному положению позвоночника."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>videos/peer/EX040.mp4</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EX027</t>
+          <t>EX041</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Казачьи приседания / Cossack Squats</t>
+          <t>EX041</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Казачьи приседания. Совет: переносите вес на одну ногу, опускаясь как можно ниже, вторая нога прямая. Фокус концентрации — мобильность тазобедренных суставов и сила в крайней точке амплитуды. Ошибка — отрыв пятки опорной ноги."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>videos/peer/EX041.mp4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EX028</t>
+          <t>EX042</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Приседания "Креветка" / Shrimp Squats</t>
+          <t>EX042</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Приседания 'Креветка'. Совет: удерживайте стопу задней ноги рукой, приседая на опорной. Это продвинутое упражнение на баланс. Фокус концентрации — стабильность колена и голеностопа. Ошибка — потеря контроля и падение. Начинайте с малой амплитуды."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>videos/peer/EX042.mp4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EX029</t>
+          <t>EX043</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Сгибания на бицепс бедра (со скольжением) / Bodyweight Hamstring Curls</t>
+          <t>EX043</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Изоляция бицепса бедра. Совет: используя скользящую поверхность, подтягивайте пятки к ягодицам, удерживая таз наверху. Фокус концентрации — ощущение сокращения задней поверхности бедра. Ошибка — падение таза в середине движения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>videos/peer/EX043.mp4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EX030</t>
+          <t>EX044</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Сисси-приседания (с опорой) / Sissy Squats (Assisted)</t>
+          <t>EX044</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Сисси-приседания. Упражнение для акцентированной проработки квадрицепсов. Совет: держитесь за опору. Отклоняйтесь назад, удерживая прямую линию от колен до плеч. Фокус концентрации — максимальное растяжение квадрицепсов. Ошибка — сгибание в тазу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>videos/peer/EX044.mp4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EX031</t>
+          <t>EX045</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Копенгагенское приведение бедра / Copenhagen Adduction</t>
+          <t>EX045</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Копенгагенское приведение. Совет: поместите верхнюю ногу на опору и поднимайте тело, используя приводящие мышцы. Фокус концентрации — сила внутренней поверхности бедра. Ошибка — использование инерции. Движение медленное и контролируемое."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>videos/peer/EX045.mp4</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EX032</t>
+          <t>EX046</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ягодичный мост на одной ноге (ноги на возвышенности) / Single-Leg Hip Thrust (Elevated)</t>
+          <t>EX046</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Продвинутый ягодичный мост. Совет: поместите опорную ногу на возвышенность для увеличения амплитуды. Фокус концентрации — пиковое сокращение ягодицы в верхней точке. Ошибка — потеря стабильности и перекос таза."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>videos/peer/EX046.mp4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EX016</t>
+          <t>EX047</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Классические отжимания / Classic Push-ups</t>
+          <t>EX047</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Упражнение: отжимания. Ключевой совет: угол между плечом и корпусом должен составлять примерно 45 градусов для оптимальной биомеханики и безопасности плечевого сустава. Фокус концентрации — постоянное напряжение мышц кора для стабилизации. Основная ошибка — потеря нейтрального положения позвоночника (прогиб), что снижает эффективность и повышает риск."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>videos/peer/EX047.mp4</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EX017</t>
+          <t>EX048</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Отжимания от возвышенности / Incline Push-ups</t>
+          <t>EX048</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Отжимания в наклоне вверх. Совет: данная вариация снижает процент поднимаемого веса тела, позволяя сфокусироваться на технике. Фокус концентрации — эксцентрическая фаза; опускайтесь медленно и подконтрольно. Ошибка — прогиб в пояснице. Сохраняйте жесткость корпуса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>videos/peer/EX048.mp4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EX018</t>
+          <t>EX049</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Отжимания с колен / Knee Push-ups</t>
+          <t>EX049</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Отжимания с колен. Совет: тело от колен до головы должно образовывать единую прямую линию, таз опущен. Фокус концентрации — целевая работа грудных мышц, несмотря на облегченную позицию. Ошибка — оставление таза наверху, что превращает движение в простой наклон."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>videos/peer/EX049.mp4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EX019</t>
+          <t>EX050</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Отжимания с ногами на возвышенности / Decline Push-ups</t>
+          <t>EX050</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Отжимания в наклоне вниз. Совет: это упражнение акцентированно нагружает верхний сектор грудных мышц и дельтовидные. Фокус концентрации — поддержание стабильности корпуса при измененном угле. Ошибка — чрезмерная скорость выполнения, ведущая к потере контроля."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>videos/peer/EX050.mp4</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EX020</t>
+          <t>EX051</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Отжимания с узкой постановкой рук / Narrow Grip Push-ups</t>
+          <t>EX051</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Отжимания с узким хватом. Совет: локти должны двигаться строго вдоль корпуса для максимального вовлечения трицепсов. Фокус концентрации — полное разгибание в локтевом суставе в верхней точке. Ошибка — разведение локтей в стороны, что снимает нагрузку с трицепса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>videos/peer/EX051.mp4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EX021</t>
+          <t>SX001</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Отжимания с широкой постановкой рук / Wide Grip Push-ups</t>
+          <t>SX001</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Отжимания с широким хватом. Совет: используйте хват, позволяющий опускаться достаточно низко без дискомфорта в плечах. Фокус концентрации — растяжение и последующее сокращение грудных мышц. Ошибка — неполная амплитуда, снижающая стимул для гипертрофии."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>videos/peer/SX001.mp4</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EX022</t>
+          <t>SX002</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Отжимание "Плюс" / Push-up Plus</t>
+          <t>SX002</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Отжимание 'Плюс'. Совет: в верхней точке выполните протракцию лопаток — дополнительное выталкивание. Фокус концентрации — активация передней зубчатой мышцы для стабилизации плечевого сустава. Ошибка — сгибание рук. Движение происходит только в лопатках."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>videos/peer/SX002.mp4</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EX023</t>
+          <t>SX003</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Подтягивания прямым хватом / Pull-ups (Pronated Grip)</t>
+          <t>SX003</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Подтягивания, пронированный хват. Совет: движение инициируется сведением и опусканием лопаток, а не сгибанием рук. Фокус концентрации — работа широчайших мышц спины. Ошибка — использование инерции (киппинг). Цель — строгое, мышечное усилие."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>videos/peer/SX003.mp4</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EX024</t>
+          <t>SX004</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Подтягивания обратным хватом / Chin-ups (Supinated Grip)</t>
+          <t>SX004</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Подтягивания, супинированный хват. Совет: данный хват значительно увеличивает вовлечение двуглавой мышцы плеча. Фокус концентрации — пиковое сокращение бицепса в верхней точке. Ошибка — неполное разгибание рук в нижней точке, что сокращает диапазон работы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>videos/peer/SX004.mp4</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EX025</t>
+          <t>SX005</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Подтягивания нейтральным хватом / Neutral Grip Pull-ups</t>
+          <t>SX005</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Подтягивания, нейтральный хват. Совет: данная вариация является наиболее анатомически естественной для плечевого сустава. Фокус концентрации — мощное тяговое движение с полным контролем. Ошибка — подъем плеч к ушам. Плечи должны быть опущены."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>videos/peer/SX005.mp4</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EX026</t>
+          <t>SX006</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Негативные подтягивания / Negative Pull-ups</t>
+          <t>SX006</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Негативные подтягивания. Совет: стартуйте из верхней точки и опускайтесь максимально медленно (5-10 секунд). Фокус концентрации — сопротивление эксцентрической нагрузке. Ошибка — быстрое 'падение' вниз. Вся ценность упражнения — в медленной фазе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>videos/peer/SX006.mp4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EX027</t>
+          <t>SX007</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Австралийские подтягивания / Inverted Rows</t>
+          <t>SX007</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Горизонтальная тяга, или Австралийские подтягивания. Совет: корпус должен оставаться жестким, как доска. Движение начинается со сведения лопаток. Фокус концентрации — активация мышц верхней части спины. Ошибка — провисание таза, что создает нежелательную нагрузку на поясницу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>videos/peer/SX007.mp4</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EX028</t>
+          <t>SX008</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Отжимания от опоры (на трицепс) / Bench/Chair Dips</t>
+          <t>SX008</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Отжимания от опоры. Совет: держите таз близко к опоре, локти направлены строго назад. Опускайтесь до угла 90 градусов в локтях. Фокус концентрации — изолированная работа трицепсов. Ошибка — чрезмерное опускание, создающее опасное напряжение в плечевом суставе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>videos/peer/SX008.mp4</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EX029</t>
+          <t>SX009</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Жим "Щучкой" / Pike Push-ups</t>
+          <t>SX009</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Жим 'Щучкой'. Совет: поднимите таз максимально высоко, чтобы корпус был как можно более вертикальным. Голова опускается между рук. Фокус концентрации — работа дельтовидных мышц. Ошибка — смещение веса вперед, что превращает упражнение в обычное отжимание."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>videos/peer/SX009.mp4</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EX030</t>
+          <t>SX010</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Y-разведения лежа на животе / Y-Raises (Prone)</t>
+          <t>SX010</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Y-разведения. Совет: движение медленное и контролируемое. В верхней точке сведите лопатки и задержитесь на секунду. Фокус концентрации — работа нижней и средней трапеции. Ошибка — использование инерции и прогиб в пояснице. Работает только верх спины."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>videos/peer/SX010.mp4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EX031</t>
+          <t>SX011</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Отжимания "Лучник" / Archer Push-ups</t>
+          <t>SX011</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Отжимания 'Лучник'. Продвинутая вариация для односторонней нагрузки. Совет: смещайте вес на одну руку, полностью сгибая ее, в то время как вторая остается почти прямой. Фокус концентрации — максимальное сокращение грудной мышцы на рабочей стороне. Ошибка — сгибание второй руки, что снижает нагрузку."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>videos/peer/SX011.mp4</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EX032</t>
+          <t>SX012</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Псевдо-планш отжимания / Pseudo Planche Push-ups</t>
+          <t>SX012</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"Псевдо-планш отжимания. Совет: расположите ладони на уровне таза, пальцы могут смотреть в стороны или назад для комфорта. Фокус концентрации — удержание тела параллельно полу за счет силы плеч и кора. Ошибка — подъем таза вверх, что упрощает упражнение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>videos/peer/SX012.mp4</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EX033</t>
+          <t>SX013</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Отжимания в стойке на руках (у стены) / Handstand Push-ups (Wall Assisted)</t>
+          <t>SX013</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Вертикальный жим: отжимания в стойке на руках. Совет: используйте стену для опоры. Опускайтесь до касания головой пола. Фокус концентрации — работа дельтовидных мышц и трицепсов. Ошибка — разведение локтей в стороны. Локти движутся вперед."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>videos/peer/SX013.mp4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EX034</t>
+          <t>SX014</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Обратные отжимания на предплечьях / Reverse Plank Dips</t>
+          <t>SX014</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"Обратные отжимания на предплечьях. Совет: из положения обратной планки на предплечьях сгибайте руки в локтях. Фокус концентрации — изолированная работа трицепсов и задних дельт. Ошибка — падение таза. Удерживайте его на весу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>videos/peer/SX014.mp4</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EX035</t>
+          <t>SX015</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Сгибания на бицепс с весом тела / Bodyweight Bicep Curls</t>
+          <t>SX015</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"Изоляция бицепса с весом тела. Совет: используя низкую перекладину, подтягивайте корпус к рукам, сгибая их в локтях. Тело остается прямым. Фокус концентрации — пиковое сокращение бицепса. Ошибка — помощь спиной. Движение только в локтевом суставе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>videos/peer/SX015.mp4</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EX036</t>
+          <t>SX016</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ходьба краба / Crab Walk</t>
+          <t>SX016</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Ходьба краба. Совет: из положения обратной планки на ладонях передвигайтесь, синхронно перемещая разноименные руку и ногу. Фокус концентрации — поддержание высоты таза и стабильности плеч. Ошибка — провисание таза."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>videos/peer/SX016.mp4</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EX031</t>
+          <t>SX017</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Планка на предплечьях / Forearm Plank</t>
+          <t>SX017</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Упражнение: планка на предплечьях. Ключевой аспект: задний наклон таза для активации прямой мышцы живота и снятия нагрузки с поясницы. Фокус концентрации — активное отталкивание предплечьями от пола для стабилизации лопаток. Распространенная ошибка — провисание таза, что свидетельствует об утомлении мышц кора и требует прекращения подхода."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>videos/peer/SX017.mp4</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EX032</t>
+          <t>SX018</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Планка на прямых руках / High Plank</t>
+          <t>SX018</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Высокая планка. Совет: ладони расположены строго под плечевыми суставами для оптимального распределения нагрузки. Фокус концентрации — создание единой жесткой линии от головы до пяток. Ошибка — гиперэкстензия в локтевых суставах. Сохраняйте легкий сгиб."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>videos/peer/SX018.mp4</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EX033</t>
+          <t>SX019</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Боковая планка / Side Plank</t>
+          <t>SX019</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Боковая планка. Совет: поднимайте таз вверх, активно сокращая косые мышцы живота. Тело должно находиться в одной фронтальной плоскости. Фокус концентрации — анти-латеральное сгибание; вы сопротивляетесь силе тяжести, стремящейся согнуть вас вбок. Ошибка — ротация корпуса вперед или назад."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>videos/peer/SX019.mp4</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EX034</t>
+          <t>SX020</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>«Птица-собака» / Bird-Dog</t>
+          <t>SX020</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Упражнение 'Птица-собака'. Это упражнение на анти-ротационную стабильность. Совет: выполняйте движение медленно и подконтрольно. Фокус концентрации — удержание таза и плечевого пояса параллельно полу. Распространенная ошибка — вращение таза при подъеме ноги, что нивелирует стабилизирующую функцию упражнения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>videos/peer/SX020.mp4</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EX035</t>
+          <t>SX021</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Скручивания на пресс / Crunches</t>
+          <t>SX021</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Скручивания. Совет: движение осуществляется за счет сгибания грудного отдела позвоночника, а не шеи. Поясница остается в контакте с полом. Фокус концентрации — сокращение прямой мышцы живота. Ошибка — использование инерции и рывков."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>videos/peer/SX021.mp4</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EX036</t>
+          <t>WZ001</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Обратные скручивания / Reverse Crunches</t>
+          <t>WZ001</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Обратные скручивания. Совет: инициируйте движение силой нижней части пресса, подтягивая колени к груди. Фокус концентрации — контролируемый отрыв таза от пола. Ошибка — сильные махи ногами, которые снимают нагрузку с целевых мышц и перегружают поясницу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ001.mp4</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EX037</t>
+          <t>WZ002</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>«Велосипед» / Bicycle Crunches</t>
+          <t>WZ002</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"Упражнение 'Велосипед'. Совет: обеспечьте полное скручивание корпуса, стремясь коснуться локтем противоположного колена. Фокус концентрации — одновременная ротация и сгибание корпуса. Ошибка — высокая скорость в ущерб амплитуде и качеству сокращения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ002.mp4</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EX038</t>
+          <t>WZ003</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Подъемы ног лежа / Lying Leg Raises</t>
+          <t>WZ003</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"Подъемы ног лежа. Совет: для предотвращения перегрузки поясницы, держите ее плотно прижатой к полу на протяжении всего движения. Фокус концентрации — эксцентрическая фаза; опускайте ноги медленно. Ошибка — прогиб в пояснице, что является сигналом недостаточной силы пресса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ003.mp4</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EX039</t>
+          <t>WZ004</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>«Супермен» / Superman</t>
+          <t>WZ004</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Упражнение 'Супермен'. Совет: движение — одновременный и контролируемый подъем рук, груди и ног. Фокус концентрации — сокращение разгибателей спины и ягодичных мышц. Ошибка — чрезмерное напряжение шеи. Взгляд должен быть направлен в пол."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ004.mp4</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EX040</t>
+          <t>WZ005</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>«Мертвый жук» / Dead Bug</t>
+          <t>WZ005</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Упражнение 'Мертвый жук'. Ключевая задача — стабилизация. Совет: опускайте разноименные конечности, сохраняя абсолютную неподвижность корпуса. Фокус концентрации — удержание поясницы в постоянном контакте с полом. Ошибка — прогиб в пояснице при опускании ноги. Это говорит о потере контроля."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ005.mp4</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>EX041</t>
+          <t>WZ006</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Повороты корпуса сидя (Русский твист) / Russian Twist</t>
+          <t>WZ006</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Русский твист. Совет: удерживайте корпус под углом 45 градусов к полу. Поворот осуществляется за счет косых мышц. Фокус концентрации — ротация в грудном отделе позвоночника. Ошибка — движение только руками, в то время как корпус остается статичным."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ006.mp4</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EX042</t>
+          <t>WZ007</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Планка с подъемом руки/ноги / Plank with Limb Raise</t>
+          <t>WZ007</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Планка с асимметричной опорой. Совет: поднимайте конечность медленно, минимизируя смещение центра тяжести. Фокус концентрации — активное сопротивление ротации корпуса. Ошибка — перекос таза в сторону поднятой конечности."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ007.mp4</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EX043</t>
+          <t>WZ008</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Боковая планка со скручиванием / Side Plank with Rotation</t>
+          <t>WZ008</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"Боковая планка с ротацией. Совет: движение 'ныряния' свободной руки под корпус должно быть контролируемым, без потери высоты таза. Фокус концентрации — работа косых мышц в динамике. Ошибка — падение таза, что снижает нагрузку."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ008.mp4</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EX044</t>
+          <t>WZ009</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>«Уголок» (удержание) / L-Sit Hold</t>
+          <t>WZ009</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"L-сит. Продвинутое изометрическое удержание. Совет: активно давите руками в опору, чтобы опустить и развести лопатки. Фокус концентрации — одновременное напряжение пресса и сгибателей бедра. Ошибка — сгибание коленей и подъем плеч к ушам."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ009.mp4</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EX045</t>
+          <t>WZ010</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Подъемы ног в висе / Hanging Leg Raises</t>
+          <t>WZ010</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Подъемы ног в висе. Совет: избегайте раскачивания. Движение должно быть строго мышечным. Фокус концентрации — сокращение мышц пресса для подъема таза. Ошибка — использование инерции, что превращает упражнение из силового в маятниковое."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ010.mp4</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>EX046</t>
+          <t>WZ011</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>"Полая лодка" (удержание) / Hollow Body Hold</t>
+          <t>WZ011</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Удержание 'Полой лодки'. Фундаментальное упражнение на силу всего кора. Совет: прижмите поясницу к полу и поднимите руки и ноги. Фокус концентрации — поддержание поясничного отдела в постоянном контакте с полом. Ошибка — прогиб в пояснице, что снимает нагрузку с пресса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ011.mp4</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EX047</t>
+          <t>WZ012</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>"Флаг Дракона" (негативная фаза) / Dragon Flag (Negative)</t>
+          <t>WZ012</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Негативный 'Флаг Дракона'. Продвинутое упражнение на эксцентрическую силу. Совет: из верхней точки опускайте тело максимально медленно, сохраняя его прямым. Фокус концентрации — сопротивление гравитации всем телом. Ошибка — сгибание в тазу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ012.mp4</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EX048</t>
+          <t>WZ013</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"Дворники" лежа / Lying Windshield Wipers</t>
+          <t>WZ013</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"Упражнение 'Дворники'. Совет: лежа на спине, опускайте поднятые ноги из стороны в сторону, не касаясь пола. Фокус концентрации — ротационная сила косых мышц. Ошибка — отрыв плеч от пола. Они должны оставаться прижатыми."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ013.mp4</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EX049</t>
+          <t>WZ014</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Выкаты на пресс (со скольжением) / Ab Rollout (Towel/Sliders)</t>
+          <t>WZ014</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"Выкаты на пресс. Совет: на коленях, медленно 'выезжайте' вперед на скользящей опоре, сохраняя напряжение в прессе. Фокус концентрации — анти-экстензия, сопротивление прогибу в пояснице. Ошибка — слишком далекий выкат с потерей контроля."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ014.mp4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EX050</t>
+          <t>WZ015</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Боковая планка с ротацией и подъемом бедра / Side Plank with Hip Lift &amp; Rotation</t>
+          <t>WZ015</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Комплексная боковая планка. Совет: интегрируйте подъем таза и скручивание корпуса в одно плавное движение. Фокус концентрации — одновременная работа косых мышц и ягодиц. Ошибка — потеря темпа и контроля. Движение медленное."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ015.mp4</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EX051</t>
+          <t>WZ016</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>L-подтягивания / L-Pull-ups</t>
+          <t>WZ016</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"L-подтягивания. Совет: выполняйте стандартные подтягивания, удерживая ноги в положении 'уголок'. Фокус концентрации — одновременная работа мышц спины, рук и всего кора. Ошибка — падение ног во время выполнения тяги. Удерживайте L-сит."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ016.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WZ017</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>WZ017</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ017.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WZ018</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>WZ018</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ018.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>WZ019</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>WZ019</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ019.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>WZ020</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>WZ020</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ020.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>WZ021</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>WZ021</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>videos/peer/WZ021.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>after-fuckin-he</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>after-fuckin-he</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>videos/peer/after-fuckin-he.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>aleksandr--kirill-</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>aleksandr--kirill-</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>videos/peer/aleksandr--kirill-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>alex--igor---close-</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>alex--igor---close-</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>videos/peer/alex--igor---close-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>alex--kirill---glad</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>alex--kirill---glad</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>videos/peer/alex--kirill---glad.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>alex-cross---onlyfa</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>alex-cross---onlyfa</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>videos/peer/alex-cross---onlyfa.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>alexey-vinnichenko-</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>alexey-vinnichenko-</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>videos/peer/alexey-vinnichenko-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>archer-push-ups</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>archer-push-ups</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>videos/peer/archer-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>archervolcano-b</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>archervolcano-b</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>videos/peer/archervolcano-b.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>artur-zinatulli</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>artur-zinatulli</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>videos/peer/artur-zinatulli.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>atlas-stone-lifts</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>atlas-stone-lifts</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>videos/peer/atlas-stone-lifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>barbell-curls</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>barbell-curls</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>videos/peer/barbell-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>battle-ropes</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>battle-ropes</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>videos/peer/battle-ropes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>bear-crawls</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>bear-crawls</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>videos/peer/bear-crawls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>bench-press</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>bench-press</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>videos/peer/bench-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>bent-over-rows</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>bent-over-rows</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>videos/peer/bent-over-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>bicep-curls</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>bicep-curls</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>videos/peer/bicep-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>bicycle-crunches</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>bicycle-crunches</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>videos/peer/bicycle-crunches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>bird-dogs</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>bird-dogs</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>videos/peer/bird-dogs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>bogdan-koshman-</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>bogdan-koshman-</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>videos/peer/bogdan-koshman-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>bottomdecidedtoca</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>bottomdecidedtoca</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>videos/peer/bottomdecidedtoca.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>box-jumps</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>box-jumps</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>videos/peer/box-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>broad-jumps</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>broad-jumps</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>videos/peer/broad-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>bubble-butt</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>bubble-butt</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>videos/peer/bubble-butt.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>bulgarian-split-squats</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>bulgarian-split-squats</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>videos/peer/bulgarian-split-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>burpees</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>burpees</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>videos/peer/burpees.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>butt-kicks</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>butt-kicks</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>videos/peer/butt-kicks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>cable-curls</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>cable-curls</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>videos/peer/cable-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>cable-flyes</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>cable-flyes</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>videos/peer/cable-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>calf-raises</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>calf-raises</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>videos/peer/calf-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>chest-flyes</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>chest-flyes</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>videos/peer/chest-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>chest-press</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>chest-press</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>videos/peer/chest-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>chin-ups</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>chin-ups</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>videos/peer/chin-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>clapping-push-ups</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>clapping-push-ups</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>videos/peer/clapping-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>close-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>close-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>videos/peer/close-grip-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>concentration-curls</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>concentration-curls</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>videos/peer/concentration-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>cossack-squats</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>cossack-squats</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>videos/peer/cossack-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>crab-walks</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>crab-walks</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>videos/peer/crab-walks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>crunches</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>crunches</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>videos/peer/crunches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>curtsy-lunges</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>curtsy-lunges</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>videos/peer/curtsy-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>dead-bugs</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>dead-bugs</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>videos/peer/dead-bugs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>deadlift</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>deadlift</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>videos/peer/deadlift.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>decline-flyes</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>decline-flyes</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>videos/peer/decline-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>decline-press</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>decline-press</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>videos/peer/decline-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>decline-push-ups</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>decline-push-ups</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>videos/peer/decline-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>dellzzy-bevagxw</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>dellzzy-bevagxw</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>videos/peer/dellzzy-bevagxw.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>depth-jumps</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>depth-jumps</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>videos/peer/depth-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>diamond-push-ups</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>diamond-push-ups</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>videos/peer/diamond-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>dips</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>dips</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>videos/peer/dips.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>dlckcharleh-dickch</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>dlckcharleh-dickch</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>videos/peer/dlckcharleh-dickch.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>double-leg-bounds</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>double-leg-bounds</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>videos/peer/double-leg-bounds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>drxt-aresfly-lo</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>drxt-aresfly-lo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>videos/peer/drxt-aresfly-lo.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>dumbbell-press</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>dumbbell-press</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>videos/peer/dumbbell-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>explosive-push-ups</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>explosive-push-ups</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>videos/peer/explosive-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>face-pulls</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>face-pulls</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>videos/peer/face-pulls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>farmer-walks</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>farmer-walks</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>videos/peer/farmer-walks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>favorite-kap-bi</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>favorite-kap-bi</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>videos/peer/favorite-kap-bi.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>favoritekapbnnuf</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>favoritekapbnnuf</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>videos/peer/favoritekapbnnuf.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>fierce-new-es-c</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>fierce-new-es-c</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>videos/peer/fierce-new-es-c.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>fierce-new-es-colle</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>fierce-new-es-colle</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>videos/peer/fierce-new-es-colle.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>flutter-kicks</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>flutter-kicks</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>videos/peer/flutter-kicks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>french-press</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>french-press</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>videos/peer/french-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>front-loaded-carries</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>front-loaded-carries</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>videos/peer/front-loaded-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>front-raises</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>front-raises</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>videos/peer/front-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>front-squats</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>front-squats</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>videos/peer/front-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>fuckedayoungguyi</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>fuckedayoungguyi</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>videos/peer/fuckedayoungguyi.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>glute-bridges</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>glute-bridges</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>videos/peer/glute-bridges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>goblet-squats</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>goblet-squats</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>videos/peer/goblet-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>good-mornings</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>good-mornings</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>videos/peer/good-mornings.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>hack-squats</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>hack-squats</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>videos/peer/hack-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>hammer-curls</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>hammer-curls</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>videos/peer/hammer-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>handstand-push-ups</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>handstand-push-ups</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>videos/peer/handstand-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>hanging-leg-raises</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>hanging-leg-raises</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>videos/peer/hanging-leg-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>hard-to-resist-</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>hard-to-resist-</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>videos/peer/hard-to-resist-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>high-knees</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>high-knees</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>videos/peer/high-knees.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>hip-thrusts</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>hip-thrusts</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>videos/peer/hip-thrusts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>hollow-body-holds</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>hollow-body-holds</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>videos/peer/hollow-body-holds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>how-do-we-feel-good-</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>how-do-we-feel-good-</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>videos/peer/how-do-we-feel-good-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>hyperextensions</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>hyperextensions</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>videos/peer/hyperextensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>incline-flyes</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>incline-flyes</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>videos/peer/incline-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>incline-press</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>incline-press</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>videos/peer/incline-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>incline-push-ups</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>incline-push-ups</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>videos/peer/incline-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>inverted-rows</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>inverted-rows</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>videos/peer/inverted-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-ful</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-ful</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>videos/peer/ivan-gudkov-ful.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-vil</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-vil</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>videos/peer/ivan-gudkov-vil.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>jump-lunges</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>jump-lunges</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>videos/peer/jump-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>jump-squats</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>jump-squats</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>videos/peer/jump-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>jumping-jacks</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>jumping-jacks</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>videos/peer/jumping-jacks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>just-chilling-a</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>just-chilling-a</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>videos/peer/just-chilling-a.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>kettlebell-cleans</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>kettlebell-cleans</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>videos/peer/kettlebell-cleans.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>kettlebell-presses</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>kettlebell-presses</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>videos/peer/kettlebell-presses.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>kettlebell-rows</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>kettlebell-rows</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>videos/peer/kettlebell-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>kettlebell-snatches</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>kettlebell-snatches</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>videos/peer/kettlebell-snatches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>kettlebell-swings</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>kettlebell-swings</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>videos/peer/kettlebell-swings.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>khav</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>khav</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>videos/peer/khav.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>kickbacks</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>kickbacks</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>videos/peer/kickbacks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>kirill--stas---clos</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>kirill--stas---clos</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>videos/peer/kirill--stas---clos.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>knee-to-elbow</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>knee-to-elbow</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>videos/peer/knee-to-elbow.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>konstantinkamyn</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>konstantinkamyn</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>videos/peer/konstantinkamyn.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>landmine-rows</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>landmine-rows</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>videos/peer/landmine-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lateral-bounds</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>lateral-bounds</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>videos/peer/lateral-bounds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>lateral-lunges</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>lateral-lunges</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>videos/peer/lateral-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>lateral-raises</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>lateral-raises</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>videos/peer/lateral-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>leg-curls</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>leg-curls</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>videos/peer/leg-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>leg-extensions</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>leg-extensions</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>videos/peer/leg-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>leg-press</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>leg-press</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>videos/peer/leg-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>leg-raises</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>leg-raises</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>videos/peer/leg-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>lunges</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>lunges</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>videos/peer/lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>lying-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>lying-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>videos/peer/lying-tricep-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>maximilianbarminb</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>maximilianbarminb</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>videos/peer/maximilianbarminb.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>medicine-ball-slams</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>medicine-ball-slams</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>videos/peer/medicine-ball-slams.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>medicine-ball-throws</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>medicine-ball-throws</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>videos/peer/medicine-ball-throws.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>mountain-climbers</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>mountain-climbers</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>videos/peer/mountain-climbers.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>overhead-carries</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>overhead-carries</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>videos/peer/overhead-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>overhead-press</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>overhead-press</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>videos/peer/overhead-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>overhead-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>overhead-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>videos/peer/overhead-tricep-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>pec-deck</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>pec-deck</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>videos/peer/pec-deck.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>pike-push-ups</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>pike-push-ups</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>videos/peer/pike-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>plank-jacks</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>plank-jacks</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>videos/peer/plank-jacks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>plank-shoulder-taps</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>plank-shoulder-taps</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>videos/peer/plank-shoulder-taps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>plank-up-downs</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>plank-up-downs</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>videos/peer/plank-up-downs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>planks</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>planks</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>videos/peer/planks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>plyometric-push-ups</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>plyometric-push-ups</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>videos/peer/plyometric-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>preacher-curls</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>preacher-curls</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>videos/peer/preacher-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>prowler-pushes</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>prowler-pushes</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>videos/peer/prowler-pushes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>pull-ups</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>pull-ups</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>videos/peer/pull-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>push-ups</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>push-ups</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>videos/peer/push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>qhgh</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>qhgh</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>videos/peer/qhgh.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>rack-pulls</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>rack-pulls</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>videos/peer/rack-pulls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>rear-delt-flyes</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>rear-delt-flyes</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>videos/peer/rear-delt-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>reverse-crunches</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>reverse-crunches</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>videos/peer/reverse-crunches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>reverse-grip-pushdowns</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>reverse-grip-pushdowns</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>videos/peer/reverse-grip-pushdowns.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>reverse-hyperextensions</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>reverse-hyperextensions</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>videos/peer/reverse-hyperextensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>reverse-lunges</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>reverse-lunges</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>videos/peer/reverse-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>romanian-deadlifts</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>romanian-deadlifts</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>videos/peer/romanian-deadlifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>rope-pushdowns</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>rope-pushdowns</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>videos/peer/rope-pushdowns.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>videos/peer/rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>rustam-posing-workou</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>rustam-posing-workou</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>videos/peer/rustam-posing-workou.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>sandbag-carries</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>sandbag-carries</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>videos/peer/sandbag-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>scissor-kicks</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>scissor-kicks</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>videos/peer/scissor-kicks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>seated-rows</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>seated-rows</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>videos/peer/seated-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>shrugs</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>shrugs</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>videos/peer/shrugs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>side-planks</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>side-planks</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>videos/peer/side-planks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>single-arm-push-ups</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>single-arm-push-ups</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>videos/peer/single-arm-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>single-arm-rows</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>single-arm-rows</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>videos/peer/single-arm-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>single-leg-deadlifts</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>single-leg-deadlifts</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>videos/peer/single-leg-deadlifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>single-leg-hops</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>single-leg-hops</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>videos/peer/single-leg-hops.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>single-leg-squats</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>single-leg-squats</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>videos/peer/single-leg-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>sissy-squats</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>sissy-squats</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>videos/peer/sissy-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>sit-ups</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>sit-ups</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>videos/peer/sit-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>skater-hops</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>skater-hops</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>videos/peer/skater-hops.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>sled-pulls</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>sled-pulls</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>videos/peer/sled-pulls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>sled-pushes</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>sled-pushes</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>videos/peer/sled-pushes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>some-time-ago-i-met-</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>some-time-ago-i-met-</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>videos/peer/some-time-ago-i-met-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>spider-curls</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>spider-curls</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>videos/peer/spider-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>squats</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>squats</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>videos/peer/squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>star-jumps</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>star-jumps</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>videos/peer/star-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>step-ups</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>step-ups</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>videos/peer/step-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>suitcase-carries</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>suitcase-carries</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>videos/peer/suitcase-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>sumo-deadlifts</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>sumo-deadlifts</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>videos/peer/sumo-deadlifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>sumo-squats</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>sumo-squats</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>videos/peer/sumo-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>superman</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>superman</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>videos/peer/superman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>t-bar-rows</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>t-bar-rows</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>videos/peer/t-bar-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>the-new-male-supermo</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>the-new-male-supermo</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>videos/peer/the-new-male-supermo.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>thrusters</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>thrusters</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>videos/peer/thrusters.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>tire-flips</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>tire-flips</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>videos/peer/tire-flips.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>tricep-dips</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>tricep-dips</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>videos/peer/tricep-dips.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>tricep-extensions</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>tricep-extensions</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>videos/peer/tricep-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>tricep-pushdowns</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>tricep-pushdowns</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>videos/peer/tricep-pushdowns.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>tuck-jumps</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>tuck-jumps</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>videos/peer/tuck-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>turkish-get-ups</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>turkish-get-ups</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>videos/peer/turkish-get-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>upright-rows</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>upright-rows</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>videos/peer/upright-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>v-ups</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>v-ups</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>videos/peer/v-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>vasiliy--first-casti</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>vasiliy--first-casti</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>videos/peer/vasiliy--first-casti.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>vladimir-buketo</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>vladimir-buketo</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>videos/peer/vladimir-buketo.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>vova---posing-workou</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>vova---posing-workou</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>videos/peer/vova---posing-workou.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>walking-lunges</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>walking-lunges</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>videos/peer/walking-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>wall-balls</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>wall-balls</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>videos/peer/wall-balls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>wall-sits</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>wall-sits</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>videos/peer/wall-sits.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>wide-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>wide-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>videos/peer/wide-grip-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>wood-choppers</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>wood-choppers</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>videos/peer/wood-choppers.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>zavolskij</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>zavolskij</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>videos/peer/zavolskij.mp4</t>
         </is>
       </c>
     </row>
